--- a/www/terminologies/ValueSet-jdv-trousse-ccu-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-trousse-ccu-cisis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,7 +148,7 @@
     <t>VHEDNGGUP01LX</t>
   </si>
   <si>
-    <t>GENOMICA - CLART HPV4S ()</t>
+    <t>GENOMICA -CLART HPV4S (?)</t>
   </si>
   <si>
     <t>VHEDB2GUP01LX</t>
@@ -172,13 +172,13 @@
     <t>VHEDHUGYA01LX</t>
   </si>
   <si>
-    <t>QIAGEN - Digene HC2 High - Risk HPV DNA (5197-1330/618111)</t>
+    <t>QIAGEN -Digene HC2 High - Risk HPV DNA (5197-1330; 618111)</t>
   </si>
   <si>
     <t>VHEDARGUR01LX</t>
   </si>
   <si>
-    <t>ROCHE DIAGNOSTICS - Cobas 4800 HPV Test (05235910190/05235901190)</t>
+    <t>ROCHE DIAGNOSTICS -Cobas 4800 HPV Test (05235910190; 05235901190)</t>
   </si>
   <si>
     <t>VHEDARGUR02LX</t>
@@ -208,13 +208,97 @@
     <t>VHEDACGUP01LX</t>
   </si>
   <si>
-    <t>Euroimmun EUROArray HPV</t>
+    <t>EUROIMMUN -EUROArray HPV (MN 2540-0505; MN 2540-0803; MN 2540-1005; MN 2540-2005)</t>
   </si>
   <si>
     <t>VHEDEBGUR01LX</t>
   </si>
   <si>
-    <t>AB ANALITICA Realquality RQ-HPV Screen</t>
+    <t>AB ANALITICA -REALQUALITY RQ-HPV Screen (RQ-123-4M; RQ-123-6M)</t>
+  </si>
+  <si>
+    <t>VHEDDGGUR01LX</t>
+  </si>
+  <si>
+    <t>ELITECH -High Risk HPV ELITe Panel (RTK402ING)</t>
+  </si>
+  <si>
+    <t>VHEDDGGUR02LX</t>
+  </si>
+  <si>
+    <t>ELITECH -HPV PLUS ELITe MGB Kit (RTS402ING)</t>
+  </si>
+  <si>
+    <t>VHEDENGUB01LX</t>
+  </si>
+  <si>
+    <t>FUJIREBIO -INNO-LiPA HPV Genotyping Extra II (81534)</t>
+  </si>
+  <si>
+    <t>VHEDF5GUR01LX</t>
+  </si>
+  <si>
+    <t>GENEPROOF -Human Papillomavirus (HPV) Screening PCR Kit (HPVS-GP-025; HPVS-GP-100)</t>
+  </si>
+  <si>
+    <t>VHERCQGAX02LX</t>
+  </si>
+  <si>
+    <t>HOLOGIC  -Aptima HPV 16 18/45 Genotype Assay (Panther System) (303236)</t>
+  </si>
+  <si>
+    <t>VHEDHKGUR01LX</t>
+  </si>
+  <si>
+    <t>ID-SOLUTIONS -HPV Fullplex qPCR (IS-HPV-100)</t>
+  </si>
+  <si>
+    <t>VHEDK7GUR01LX</t>
+  </si>
+  <si>
+    <t>LABORATOIRE OBO -OSANTYS 15 HR-HPV qPCR KIT (OS-HR-HPV-50; OS-HR-HPV-100)</t>
+  </si>
+  <si>
+    <t>VHEDARGUR03LX</t>
+  </si>
+  <si>
+    <t>ROCHE DIAGNOSTICS -Cobas HPV 5800/6800/8800 Systems (09040544190)</t>
+  </si>
+  <si>
+    <t>VHEDEIGUR01LX</t>
+  </si>
+  <si>
+    <t>SACACE BIOTECHNOLOGIES -HPV 14 Screening 16,18,45 typing Realt -TM Quant (V31-100/F FRT)</t>
+  </si>
+  <si>
+    <t>VHEDG3GUR01LX</t>
+  </si>
+  <si>
+    <t>SANSURE BIOTECH -Kit de Diagnostic de l'ADN du Papillomavirus Humain (S3057E)</t>
+  </si>
+  <si>
+    <t>VHEDHVGUR02LX</t>
+  </si>
+  <si>
+    <t>SEEGENE -Anyplex II HPV 28 Detection (HP7S00X)</t>
+  </si>
+  <si>
+    <t>VHEDHVGUR03LX</t>
+  </si>
+  <si>
+    <t>SEEGENE -Allplex HPV28 Detection (HP10372X; HP10373Z)</t>
+  </si>
+  <si>
+    <t>VHEDHVGUR04LX</t>
+  </si>
+  <si>
+    <t>SEEGENE -Allplex HPV HR Detection (HP10370X; HP10376L; HP10371Z)</t>
+  </si>
+  <si>
+    <t>VHEDO7GUR01LX</t>
+  </si>
+  <si>
+    <t>VITRO -HPV Screening (MAD-003949M-W; MAD-003949M-OP)</t>
   </si>
   <si>
     <t>https://smt.esante.gouv.fr/terminologie-tccr</t>
@@ -533,7 +617,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -689,18 +773,130 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>67</v>
+      <c r="B34" t="s" s="2">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-jdv-trousse-ccu-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-trousse-ccu-cisis.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251216141839</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-12-16T14:18:39+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
